--- a/database_words_sent.xlsx
+++ b/database_words_sent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palma\Documents\LLM_project\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9FCDC0F-C0DF-4695-AF68-BF79423AAAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DA4344-2FDA-460D-A994-C243B93A7B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1667,6 +1667,10 @@
     <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
